--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="2205" windowWidth="21570" windowHeight="12675" activeTab="3"/>
+    <workbookView xWindow="5415" yWindow="2205" windowWidth="21570" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="概要" sheetId="2" r:id="rId2"/>
     <sheet name="フロー" sheetId="4" r:id="rId3"/>
     <sheet name="画面仕様" sheetId="3" r:id="rId4"/>
-    <sheet name="ステージ" sheetId="5" r:id="rId5"/>
-    <sheet name="操作キャラ" sheetId="8" r:id="rId6"/>
-    <sheet name="ギミック" sheetId="6" r:id="rId7"/>
-    <sheet name="敵" sheetId="7" r:id="rId8"/>
+    <sheet name="共通" sheetId="9" r:id="rId5"/>
+    <sheet name="ステージ" sheetId="5" r:id="rId6"/>
+    <sheet name="操作キャラ" sheetId="8" r:id="rId7"/>
+    <sheet name="ギミック" sheetId="6" r:id="rId8"/>
+    <sheet name="敵" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -328,10 +329,6 @@
     <t>どの画面から開いても、元の画面 (A, B, C, D, G) に戻る</t>
   </si>
   <si>
-    <t>640x512</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面サイズ:</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -339,50 +336,155 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>`5:4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル画面 (A)</t>
   </si>
   <si>
-    <t>①ゲームタイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「PixcelAdventure」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②ステージ選択ボタン</t>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームタイトル</t>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタンを押すことでステージ選択画面へ遷移する。</t>
+    <t>背景はステージ１～３のプレイ風景を表示する。</t>
+  </si>
+  <si>
+    <t>ステージ選択ボタン</t>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションボタン</t>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了ボタン</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームバージョン情報</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームバージョンを表示する位置。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すことで、アプリケーションを終了する。</t>
     <rPh sb="4" eb="5">
       <t>オ</t>
     </rPh>
-    <rPh sb="13" eb="17">
-      <t>センタクガメン</t>
+    <rPh sb="19" eb="21">
+      <t>シュウリョウ</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ボタンを押すことで、オプションポップアップを開く。
+</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③オプションボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オプションポップアップを開きます。
-</t>
-    <rPh sb="12" eb="13">
+    <rPh sb="22" eb="23">
       <t>ヒラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すことで、ステージ選択画面へ遷移する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームタイトル「PixcelAdventure」を表示する。</t>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジットボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライセンスボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すことで、ライセンスポップアップを表示する。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すことで、クレジットポップアップを表示する。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>480x240</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`2:1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +542,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,8 +578,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -484,13 +620,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +799,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,19 +923,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>610451</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>143560</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>134213</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -638,8 +948,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="1400175"/>
-          <a:ext cx="6096851" cy="4906060"/>
+          <a:off x="1752600" y="3152775"/>
+          <a:ext cx="6182588" cy="4953691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,16 +960,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -668,8 +978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="2200275"/>
-          <a:ext cx="428625" cy="447675"/>
+          <a:off x="2733676" y="3952876"/>
+          <a:ext cx="438150" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,26 +1022,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="3543300"/>
-          <a:ext cx="428625" cy="447675"/>
+          <a:off x="3657600" y="5362575"/>
+          <a:ext cx="438150" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -774,26 +1084,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="4238625"/>
-          <a:ext cx="428625" cy="447675"/>
+          <a:off x="3667126" y="6057901"/>
+          <a:ext cx="438150" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,26 +1146,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="4905375"/>
-          <a:ext cx="428625" cy="447675"/>
+          <a:off x="3676651" y="6734176"/>
+          <a:ext cx="438150" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,26 +1208,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248400" y="5753100"/>
-          <a:ext cx="428625" cy="447675"/>
+          <a:off x="1704976" y="7381876"/>
+          <a:ext cx="438150" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -960,26 +1270,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143750" y="5772150"/>
-          <a:ext cx="428625" cy="447675"/>
+          <a:off x="5924551" y="7515226"/>
+          <a:ext cx="438150" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1022,26 +1332,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2028825" y="5648325"/>
-          <a:ext cx="428625" cy="447675"/>
+          <a:off x="6867526" y="7524751"/>
+          <a:ext cx="438150" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1451,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1604,17 +1914,17 @@
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D31" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D32" s="15" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F32" s="14"/>
     </row>
@@ -1805,63 +2115,2422 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:N14"/>
+  <dimension ref="C1:AZ77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="4:14" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:52" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="3:52" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="N6" s="5" t="s">
+    <row r="3" spans="3:52" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="20"/>
+    </row>
+    <row r="11" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="23"/>
+    </row>
+    <row r="12" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C12" s="24"/>
+      <c r="D12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="27"/>
+    </row>
+    <row r="13" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="27"/>
+    </row>
+    <row r="14" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="27"/>
+    </row>
+    <row r="15" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+    </row>
+    <row r="16" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+    </row>
+    <row r="17" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="27"/>
+      <c r="AZ17" s="27"/>
+    </row>
+    <row r="18" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="27"/>
+      <c r="AZ18" s="27"/>
+    </row>
+    <row r="19" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF19" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="30"/>
+      <c r="AZ19" s="27"/>
+    </row>
+    <row r="20" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+    </row>
+    <row r="21" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+    </row>
+    <row r="22" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+    </row>
+    <row r="23" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+    </row>
+    <row r="24" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="N7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="N8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="N10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="N11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="N13" t="s">
+      <c r="AF24" s="29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="N14" s="18" t="s">
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="30"/>
+      <c r="AZ24" s="27"/>
+    </row>
+    <row r="25" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+    </row>
+    <row r="26" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="27"/>
+      <c r="AZ26" s="27"/>
+    </row>
+    <row r="27" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="27"/>
+    </row>
+    <row r="28" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="27"/>
+    </row>
+    <row r="29" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="31" t="s">
         <v>64</v>
       </c>
+      <c r="AF29" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="29"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="30"/>
+      <c r="AZ29" s="27"/>
+    </row>
+    <row r="30" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+    </row>
+    <row r="31" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+    </row>
+    <row r="32" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="24"/>
+      <c r="AG32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="27"/>
+      <c r="AZ32" s="27"/>
+    </row>
+    <row r="33" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="27"/>
+      <c r="AZ33" s="27"/>
+    </row>
+    <row r="34" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF34" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="29"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="29"/>
+      <c r="AV34" s="29"/>
+      <c r="AW34" s="29"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="30"/>
+      <c r="AZ34" s="27"/>
+    </row>
+    <row r="35" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="27"/>
+      <c r="AZ35" s="27"/>
+    </row>
+    <row r="36" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="27"/>
+      <c r="AZ36" s="27"/>
+    </row>
+    <row r="37" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="27"/>
+      <c r="AZ37" s="27"/>
+    </row>
+    <row r="38" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="14"/>
+      <c r="AV38" s="14"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="27"/>
+      <c r="AZ38" s="27"/>
+    </row>
+    <row r="39" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF39" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="29"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="29"/>
+      <c r="AT39" s="29"/>
+      <c r="AU39" s="29"/>
+      <c r="AV39" s="29"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="30"/>
+      <c r="AZ39" s="27"/>
+    </row>
+    <row r="40" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="27"/>
+      <c r="AZ40" s="27"/>
+    </row>
+    <row r="41" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="27"/>
+      <c r="AZ41" s="27"/>
+    </row>
+    <row r="42" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="27"/>
+      <c r="AZ42" s="27"/>
+    </row>
+    <row r="43" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="14"/>
+      <c r="AW43" s="14"/>
+      <c r="AX43" s="14"/>
+      <c r="AY43" s="27"/>
+      <c r="AZ43" s="27"/>
+    </row>
+    <row r="44" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF44" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="29"/>
+      <c r="AL44" s="29"/>
+      <c r="AM44" s="29"/>
+      <c r="AN44" s="29"/>
+      <c r="AO44" s="29"/>
+      <c r="AP44" s="29"/>
+      <c r="AQ44" s="29"/>
+      <c r="AR44" s="29"/>
+      <c r="AS44" s="29"/>
+      <c r="AT44" s="29"/>
+      <c r="AU44" s="29"/>
+      <c r="AV44" s="29"/>
+      <c r="AW44" s="29"/>
+      <c r="AX44" s="29"/>
+      <c r="AY44" s="30"/>
+      <c r="AZ44" s="27"/>
+    </row>
+    <row r="45" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="14"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="14"/>
+      <c r="AT45" s="14"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="14"/>
+      <c r="AX45" s="14"/>
+      <c r="AY45" s="27"/>
+      <c r="AZ45" s="27"/>
+    </row>
+    <row r="46" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="27"/>
+      <c r="AZ46" s="27"/>
+    </row>
+    <row r="47" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="14"/>
+      <c r="AP47" s="14"/>
+      <c r="AQ47" s="14"/>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="14"/>
+      <c r="AT47" s="14"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="14"/>
+      <c r="AY47" s="27"/>
+      <c r="AZ47" s="27"/>
+    </row>
+    <row r="48" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="14"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="14"/>
+      <c r="AT48" s="14"/>
+      <c r="AU48" s="14"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="14"/>
+      <c r="AX48" s="14"/>
+      <c r="AY48" s="27"/>
+      <c r="AZ48" s="27"/>
+    </row>
+    <row r="49" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF49" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="29"/>
+      <c r="AL49" s="29"/>
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="29"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="29"/>
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="29"/>
+      <c r="AS49" s="29"/>
+      <c r="AT49" s="29"/>
+      <c r="AU49" s="29"/>
+      <c r="AV49" s="29"/>
+      <c r="AW49" s="29"/>
+      <c r="AX49" s="29"/>
+      <c r="AY49" s="30"/>
+      <c r="AZ49" s="27"/>
+    </row>
+    <row r="50" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="27"/>
+      <c r="AZ50" s="27"/>
+    </row>
+    <row r="51" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="14"/>
+      <c r="AY51" s="27"/>
+      <c r="AZ51" s="27"/>
+    </row>
+    <row r="52" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="14"/>
+      <c r="AK52" s="14"/>
+      <c r="AL52" s="14"/>
+      <c r="AM52" s="14"/>
+      <c r="AN52" s="14"/>
+      <c r="AO52" s="14"/>
+      <c r="AP52" s="14"/>
+      <c r="AQ52" s="14"/>
+      <c r="AR52" s="14"/>
+      <c r="AS52" s="14"/>
+      <c r="AT52" s="14"/>
+      <c r="AU52" s="14"/>
+      <c r="AV52" s="14"/>
+      <c r="AW52" s="14"/>
+      <c r="AX52" s="14"/>
+      <c r="AY52" s="27"/>
+      <c r="AZ52" s="27"/>
+    </row>
+    <row r="53" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C53" s="24"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="32"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="33"/>
+      <c r="AK53" s="33"/>
+      <c r="AL53" s="33"/>
+      <c r="AM53" s="33"/>
+      <c r="AN53" s="33"/>
+      <c r="AO53" s="33"/>
+      <c r="AP53" s="33"/>
+      <c r="AQ53" s="33"/>
+      <c r="AR53" s="33"/>
+      <c r="AS53" s="33"/>
+      <c r="AT53" s="33"/>
+      <c r="AU53" s="33"/>
+      <c r="AV53" s="33"/>
+      <c r="AW53" s="33"/>
+      <c r="AX53" s="33"/>
+      <c r="AY53" s="34"/>
+      <c r="AZ53" s="27"/>
+    </row>
+    <row r="54" spans="3:52" x14ac:dyDescent="0.4">
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="33"/>
+      <c r="AG54" s="33"/>
+      <c r="AH54" s="33"/>
+      <c r="AI54" s="33"/>
+      <c r="AJ54" s="33"/>
+      <c r="AK54" s="33"/>
+      <c r="AL54" s="33"/>
+      <c r="AM54" s="33"/>
+      <c r="AN54" s="33"/>
+      <c r="AO54" s="33"/>
+      <c r="AP54" s="33"/>
+      <c r="AQ54" s="33"/>
+      <c r="AR54" s="33"/>
+      <c r="AS54" s="33"/>
+      <c r="AT54" s="33"/>
+      <c r="AU54" s="33"/>
+      <c r="AV54" s="33"/>
+      <c r="AW54" s="33"/>
+      <c r="AX54" s="33"/>
+      <c r="AY54" s="33"/>
+      <c r="AZ54" s="34"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H77" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1873,15 +4542,18 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="4:4" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1899,7 +4571,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1907,7 +4579,7 @@
     <row r="1" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="4:4" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1933,7 +4605,7 @@
     <row r="1" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="4:4" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1944,6 +4616,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:D3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="4:4" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:D3"/>
   <sheetViews>

--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="2205" windowWidth="21570" windowHeight="12675" activeTab="3"/>
+    <workbookView xWindow="5415" yWindow="2205" windowWidth="21570" windowHeight="12675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="151">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -979,6 +979,49 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>オンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矩形とマウスorフォーカスがあっている状態でクリックor決定ボタンの押下でPUSH状態になり、PULLのタイミングで選択したことになる。</t>
+    <rPh sb="0" eb="2">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上に×ボタンがある。非表示にすることも可能。</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3923,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BF194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -14882,13 +14925,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:D3"/>
+  <dimension ref="D1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14903,9 +14946,30 @@
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="4:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="D5" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="D8" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="2205" windowWidth="21570" windowHeight="12675" activeTab="4"/>
+    <workbookView xWindow="5415" yWindow="2205" windowWidth="21570" windowHeight="12675" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="203">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1022,6 +1022,478 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30x16マス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの移動は無し</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～５０のステージがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaskDude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NinjaFrog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PinkMan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VirtualGuy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４種類あるが、個体差は無し</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コタイサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動キーで移動できる</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプキーでジャンプできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ中にジャンプキーで2段ジャンプできる</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中で壁に付くと壁ジャンプ待機になる</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁ジャンプ待機中は一定量で落下する</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁ジャンプ待機中にジャンプキーで壁ジャンプができる</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのアニメーションの速度は20FPSまたは50MSである</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱１</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムな種類のフルーツが3個出現する</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱２</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回の上下からの接触で破壊可能</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ハカイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回の上下からの接触で破壊可能</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ハカイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムな種類のフルーツが5個出現する</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱３</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5回の上下からの接触で破壊可能</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ハカイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このゲームのゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触れることで旗が立ち、ステージクリアとなる</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート位置</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作キャラのステージ開始地点</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景はランダム</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バナナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キウイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メロン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイナップル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イチゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触れることで獲得が可能</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個体差はない</t>
+    <rPh sb="0" eb="3">
+      <t>コタイサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージクリアすると紙吹雪の演出が発生する</t>
+    <rPh sb="10" eb="13">
+      <t>カミフブキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動中、ジャンプ開始の瞬間、2段ジャンプ開始の瞬間、着地の瞬間、壁ジャンプ待機の開始瞬間はパーティクルが発生する</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動中</t>
+    <rPh sb="0" eb="3">
+      <t>イドウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティクル量</t>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ開始の瞬間</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2段ジャンプ開始の瞬間</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少なめ</t>
+    <rPh sb="0" eb="1">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着地の瞬間</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁ジャンプ待機の開始の瞬間</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>極小</t>
+    <rPh sb="0" eb="2">
+      <t>ゴクショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3793,7 +4265,7 @@
   <dimension ref="D1:D65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
@@ -3967,7 +4439,7 @@
   <dimension ref="C1:BF194"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AF189" sqref="AF189"/>
@@ -14925,13 +15397,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:D9"/>
+  <dimension ref="D1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14966,6 +15438,11 @@
         <v>150</v>
       </c>
     </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14975,13 +15452,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:D3"/>
+  <dimension ref="D1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14993,6 +15470,31 @@
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15001,13 +15503,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:D3"/>
+  <dimension ref="D1:G25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15019,6 +15521,111 @@
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15027,13 +15634,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:D3"/>
+  <dimension ref="D1:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15045,6 +15652,136 @@
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15055,7 +15792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="276">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1497,12 +1497,919 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>トラップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上昇アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度触れると消滅する</t>
+    <rPh sb="0" eb="3">
+      <t>イチドフ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2段ジャンプはリセットされ、再度２段ジャンプ可能となる</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上昇量はジャンプと同等</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定以上の移動量で操作キャラが触れると壊れる</t>
+    <rPh sb="0" eb="4">
+      <t>イッテイイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下足場</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファンがON状態のとき、設置方向に気流が発生する</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>セッチホウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キリュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵、操作キャラは触れると気流に合わせて移動を続ける</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キリュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火炎放射器</t>
+    <rPh sb="0" eb="5">
+      <t>カエンホウシャキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作キャラクタが触れると、一定時間後に炎を発射する</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>イッテイジカンゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎に当たるとゲームオーバーとなる</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作キャラが乗ると一定時間後に落下しなくなる</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>イッテイジカンゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触れるた操作キャラが上昇する</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウン足場</t>
+    <rPh sb="4" eb="6">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗ると動き出す</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触れていない間は元の位置に戻って動く</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレイ足場</t>
+    <rPh sb="3" eb="5">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定移動速度で移動場所を繰り返し移動する</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イドウバショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵、操作キャラは乗ることができる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックヘッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決められたルートをぶつかるまで移動を繰り返す</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触れるとゲームオーバー</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックヘッドと壁に挟まれるとゲームオーバー</t>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動中のロックヘッドに乗ることができる</t>
+    <rPh sb="0" eb="3">
+      <t>イドウチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右移動中のロックヘッドの指導方向にいる場合、押される</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シドウホウコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂場</t>
+    <rPh sb="0" eb="2">
+      <t>スナバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ量は変わらない</t>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右移動量が半減する</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティクルも変化する</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沼</t>
+    <rPh sb="0" eb="1">
+      <t>ヌマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着地地点、侵入地点で足が埋まる</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シンニュウチテン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埋まった時点で左右移動は不可となる</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>サユウイドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプは可能</t>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右から侵入した場合、壁キック待機状態となるが、埋まるため落下しない</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>タイキジョウタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷の上で移動すると減速しない</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決められた位置を移動し続ける</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OFF状態のソーは基本使わないが乗ることができることとする</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイクヘッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックヘッドと動きは同じ</t>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイクボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決まった動きを繰り返す</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作キャラクタが触れるとゲームオーバー</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作キャラが触れるとゲームオーバー</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON状態のものに操作キャラが触れるとゲームオーバー</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランポリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗ると大ジャンプする</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ中だとジャンプ回数がリセットされ２段ジャンプ可能となる</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上昇量はジャンプの３倍</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウショウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キノコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右移動する</t>
+    <rPh sb="0" eb="4">
+      <t>サユウイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作キャラが左右から触れるとゲームオーバー</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キノコより上の位置から落下状態で接触すると倒すことができる</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ラッカジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崖か壁まで移動するとアイドルモーションを１回挟み、ターンする</t>
+    <rPh sb="0" eb="1">
+      <t>ガケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このキャラクタが向いている方向に操作キャラが存在すると移動をやめて球を一定間隔で発射する</t>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>イッテイカンカク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射された球は壁にぶつかると壊れる</t>
+    <rPh sb="0" eb="2">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾に当たるか、この敵の左右から操作キャラが触れるとゲームオーバー</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランクより上の位置から落下状態で接触すると倒すことができる</t>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ラッカジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い鳥</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決められたルートを左右移動する</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>サユウイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い鳥より上の位置から落下状態で接触すると倒すことができる</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ラッカジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶏</t>
+    <rPh sb="0" eb="1">
+      <t>ニワトリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本待機状態</t>
+    <rPh sb="0" eb="6">
+      <t>キホンタイキジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右方向に操作キャラがいると反対を向いていても反転して向かってくる</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動量は操作キャラの最大移動量と同等</t>
+    <rPh sb="0" eb="3">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶏より上の位置から落下状態で接触すると倒すことができる</t>
+    <rPh sb="0" eb="1">
+      <t>ニワトリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ラッカジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラント</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,6 +2464,15 @@
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1745,7 +2661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1855,6 +2771,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3710,6 +4629,1072 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="1704975"/>
+          <a:ext cx="266700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="2609850"/>
+          <a:ext cx="266700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="3600450"/>
+          <a:ext cx="266700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="4391025"/>
+          <a:ext cx="6096000" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="5343525"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="6391275"/>
+          <a:ext cx="5181600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="9906000"/>
+          <a:ext cx="1714500" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="11334750"/>
+          <a:ext cx="209550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="12049125"/>
+          <a:ext cx="304800" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="12877800"/>
+          <a:ext cx="228600" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="13639800"/>
+          <a:ext cx="457200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010025" y="14811375"/>
+          <a:ext cx="304800" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="15630525"/>
+          <a:ext cx="304800" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="16411575"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="18002250"/>
+          <a:ext cx="1676400" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="21678900"/>
+          <a:ext cx="361950" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="22879050"/>
+          <a:ext cx="514350" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="23955375"/>
+          <a:ext cx="266700" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="24936450"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="25555575"/>
+          <a:ext cx="266700" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="1228725"/>
+          <a:ext cx="4267200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3305175"/>
+          <a:ext cx="10058400" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="5210175"/>
+          <a:ext cx="2743200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="6400800"/>
+          <a:ext cx="3962400" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4077,7 +6062,7 @@
   <dimension ref="D1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
@@ -15634,13 +17619,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:E36"/>
+  <dimension ref="D1:E110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15652,8 +17637,8 @@
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+    <row r="5" spans="4:4" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="D5" s="37" t="s">
         <v>166</v>
       </c>
     </row>
@@ -15782,21 +17767,303 @@
         <v>191</v>
       </c>
     </row>
+    <row r="39" spans="4:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="D39" s="37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D78" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D81" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D88" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D91" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D92" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D93" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D96" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D97" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D98" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D100" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D101" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D102" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D105" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D108" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D109" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D110" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:D3"/>
+  <dimension ref="D1:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15808,8 +18075,124 @@
       </c>
     </row>
     <row r="3" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>